--- a/修仙道/门派.xlsx
+++ b/修仙道/门派.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12780"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -72,7 +72,28 @@
     <t>紫阳宗</t>
   </si>
   <si>
+    <t>冥神殿</t>
+  </si>
+  <si>
+    <t>玄凤雷</t>
+  </si>
+  <si>
+    <t>100%基础伤害+金系*100%+体魄*100%</t>
+  </si>
+  <si>
+    <t>青云宗</t>
+  </si>
+  <si>
+    <t>紫微教</t>
+  </si>
+  <si>
     <t>万妖殿</t>
+  </si>
+  <si>
+    <t>煞魔斩</t>
+  </si>
+  <si>
+    <t>100%基础伤害+金系*100%+木系*100%</t>
   </si>
   <si>
     <t>补天阁</t>
@@ -83,16 +104,37 @@
   <si>
     <t>星辰学院</t>
   </si>
+  <si>
+    <t>掩月宗</t>
+  </si>
+  <si>
+    <t>光龙佛舞</t>
+  </si>
+  <si>
+    <t>100%基础伤害+身法*100%+木系*100%</t>
+  </si>
+  <si>
+    <t>离火教</t>
+  </si>
+  <si>
+    <t>紫焰法</t>
+  </si>
+  <si>
+    <t>100%基础伤害+真气*100%+木系*100%</t>
+  </si>
+  <si>
+    <t>魁星岛</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -136,22 +178,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,19 +206,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +228,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -202,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,32 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,19 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +390,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +468,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,55 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +553,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +607,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -606,9 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,7 +1215,7 @@
   <dimension ref="A1:K16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1183,7 +1225,7 @@
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="38.25" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
@@ -1323,11 +1365,17 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1341,7 +1389,9 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -1359,7 +1409,9 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1414,12 +1466,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1434,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1454,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1474,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1493,11 +1549,17 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1511,11 +1573,17 @@
       <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1529,7 +1597,9 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>

--- a/修仙道/门派.xlsx
+++ b/修仙道/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -57,7 +57,7 @@
     <t>提升修炼速度</t>
   </si>
   <si>
-    <t>阴尸宗</t>
+    <t>阴玄宗</t>
   </si>
   <si>
     <t>墨霜印</t>
@@ -69,7 +69,19 @@
     <t>金霞宗</t>
   </si>
   <si>
+    <t>碧炎龙咒</t>
+  </si>
+  <si>
+    <t>100%基础伤害+火系*100%</t>
+  </si>
+  <si>
     <t>紫阳宗</t>
+  </si>
+  <si>
+    <t>涡卷轰</t>
+  </si>
+  <si>
+    <t>100%基础伤害+水系*100%</t>
   </si>
   <si>
     <t>冥神殿</t>
@@ -87,6 +99,24 @@
     <t>紫微教</t>
   </si>
   <si>
+    <t>紫薇残页</t>
+  </si>
+  <si>
+    <t>增加灵气获取速度</t>
+  </si>
+  <si>
+    <t>栖霞教</t>
+  </si>
+  <si>
+    <t>栖霞心决</t>
+  </si>
+  <si>
+    <t>逍遥门</t>
+  </si>
+  <si>
+    <t>逍遥心决</t>
+  </si>
+  <si>
     <t>万妖殿</t>
   </si>
   <si>
@@ -99,10 +129,25 @@
     <t>补天阁</t>
   </si>
   <si>
+    <t>紫霜印</t>
+  </si>
+  <si>
+    <t>100%基础伤害+真气*100%+土系*100%</t>
+  </si>
+  <si>
     <t>玄元派</t>
   </si>
   <si>
+    <t>耀金掌</t>
+  </si>
+  <si>
+    <t>100%基础伤害+真气*100%+水系*100%</t>
+  </si>
+  <si>
     <t>星辰学院</t>
+  </si>
+  <si>
+    <t>移花接木</t>
   </si>
   <si>
     <t>掩月宗</t>
@@ -125,16 +170,106 @@
   <si>
     <t>魁星岛</t>
   </si>
+  <si>
+    <t>斩情掌</t>
+  </si>
+  <si>
+    <t>100%基础伤害+身法*100%+火系*100%</t>
+  </si>
+  <si>
+    <t>云天宗</t>
+  </si>
+  <si>
+    <t>逍遥法</t>
+  </si>
+  <si>
+    <t>100%基础伤害+金系*100%+身法*100%</t>
+  </si>
+  <si>
+    <t>太玄宗</t>
+  </si>
+  <si>
+    <t>太玄心决</t>
+  </si>
+  <si>
+    <t>离恨剑山</t>
+  </si>
+  <si>
+    <t>百变腿</t>
+  </si>
+  <si>
+    <t>100%基础伤害+身法*100%+水系*100%</t>
+  </si>
+  <si>
+    <t>落云宗</t>
+  </si>
+  <si>
+    <t>破妖吟</t>
+  </si>
+  <si>
+    <t>100%基础伤害+根骨*100%+火系*100%</t>
+  </si>
+  <si>
+    <t>御灵宗</t>
+  </si>
+  <si>
+    <t>御灵心决</t>
+  </si>
+  <si>
+    <t>丹鼎门</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>望月宗</t>
+  </si>
+  <si>
+    <t>烈日魔隐</t>
+  </si>
+  <si>
+    <t>神药门</t>
+  </si>
+  <si>
+    <t>墨羽步</t>
+  </si>
+  <si>
+    <t>100%基础伤害+真气*100%+身法*100%</t>
+  </si>
+  <si>
+    <t>归元宗</t>
+  </si>
+  <si>
+    <t>归元残页</t>
+  </si>
+  <si>
+    <t>七玄门</t>
+  </si>
+  <si>
+    <t>还神咒</t>
+  </si>
+  <si>
+    <t>100%基础伤害+根骨*100%+木系*100%</t>
+  </si>
+  <si>
+    <t>森罗殿</t>
+  </si>
+  <si>
+    <t>合欢宗</t>
+  </si>
+  <si>
+    <t>恒岳派</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -178,7 +313,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,53 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,36 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -306,18 +449,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,30 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,19 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +543,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,25 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,24 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -590,17 +707,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,28 +775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16384"/>
+  <dimension ref="A1:K16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,7 +1430,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A59" si="0">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -1319,7 +1454,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -1330,8 +1465,12 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1339,19 +1478,23 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1359,22 +1502,22 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1383,14 +1526,14 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1403,14 +1546,14 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1418,63 +1561,79 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1483,19 +1642,23 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1503,19 +1666,23 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1523,19 +1690,23 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1543,22 +1714,22 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1567,22 +1738,22 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1591,37 +1762,42 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
       <c r="A17" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1629,39 +1805,51 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:11">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A60" si="0">ROW()-1</f>
         <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="3">
@@ -1671,11 +1859,17 @@
       <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1689,15 +1883,21 @@
       <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="12"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="3">
@@ -1707,15 +1907,29 @@
       <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="F23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="3">
@@ -1725,13 +1939,19 @@
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
@@ -1743,11 +1963,17 @@
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1758,36 +1984,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="13">
         <v>3</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="C27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
@@ -1797,13 +2035,15 @@
       <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
@@ -1815,13 +2055,15 @@
       <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
@@ -1833,11 +2075,13 @@
       <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1866,18 +2110,18 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>4</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
@@ -1890,8 +2134,8 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1908,8 +2152,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -1946,8 +2190,8 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
@@ -1956,18 +2200,18 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="4">
-        <v>5</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="B37" s="6">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
@@ -2038,33 +2282,35 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="16">
-        <v>4</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="16">
+        <v>4</v>
+      </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2086,10 +2332,10 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
@@ -2102,10 +2348,10 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
@@ -2263,7 +2509,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
     </row>
@@ -2279,7 +2525,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
     </row>
@@ -2331,17 +2577,32 @@
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:2">
-      <c r="B60" s="1">
-        <v>5</v>
-      </c>
+    <row r="60" s="1" customFormat="1" spans="1:11">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:2">
       <c r="B61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1"/>
     <row r="63" s="1" customFormat="1"/>
     <row r="64" s="1" customFormat="1"/>
     <row r="65" s="1" customFormat="1"/>
@@ -18659,9 +18920,7 @@
     <row r="16377" s="1" customFormat="1"/>
     <row r="16378" s="1" customFormat="1"/>
     <row r="16379" s="1" customFormat="1"/>
-    <row r="16380" s="1" customFormat="1" spans="3:3">
-      <c r="C16380"/>
-    </row>
+    <row r="16380" s="1" customFormat="1"/>
     <row r="16381" s="1" customFormat="1" spans="3:3">
       <c r="C16381"/>
     </row>
@@ -18674,12 +18933,15 @@
     <row r="16384" s="1" customFormat="1" spans="3:3">
       <c r="C16384"/>
     </row>
+    <row r="16385" s="1" customFormat="1" spans="3:3">
+      <c r="C16385"/>
+    </row>
   </sheetData>
   <sortState ref="A2:K16384">
     <sortCondition ref="B22"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K40 K2:K39 K41:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9 K10 K18 K41 K2:K8 K11:K17 K19:K22 K24:K40 K42:K54">
       <formula1>"增加灵气获取速度,提升修炼速度"</formula1>
     </dataValidation>
   </dataValidations>
